--- a/final_data_pipeline/output/312120longform.xlsx
+++ b/final_data_pipeline/output/312120longform.xlsx
@@ -1712,7 +1712,7 @@
         <v>76</v>
       </c>
       <c r="AA12">
-        <v>10</v>
+        <v>17.71296296296294</v>
       </c>
       <c r="AB12">
         <v>8000</v>
@@ -1801,7 +1801,7 @@
         <v>76</v>
       </c>
       <c r="AA13">
-        <v>10</v>
+        <v>17.71296296296294</v>
       </c>
       <c r="AB13">
         <v>8000</v>
@@ -1893,7 +1893,7 @@
         <v>76</v>
       </c>
       <c r="AA14">
-        <v>10</v>
+        <v>17.71296296296294</v>
       </c>
       <c r="AB14">
         <v>8000</v>
@@ -1985,7 +1985,7 @@
         <v>76</v>
       </c>
       <c r="AA15">
-        <v>10</v>
+        <v>17.71296296296294</v>
       </c>
       <c r="AB15">
         <v>8000</v>
@@ -2080,7 +2080,7 @@
         <v>76</v>
       </c>
       <c r="AA16">
-        <v>10</v>
+        <v>17.71296296296294</v>
       </c>
       <c r="AB16">
         <v>8000</v>
@@ -2169,7 +2169,7 @@
         <v>76</v>
       </c>
       <c r="AA17">
-        <v>10</v>
+        <v>17.71296296296294</v>
       </c>
       <c r="AB17">
         <v>8000</v>
@@ -2258,7 +2258,7 @@
         <v>76</v>
       </c>
       <c r="AA18">
-        <v>10</v>
+        <v>17.71296296296294</v>
       </c>
       <c r="AB18">
         <v>8000</v>
@@ -2347,7 +2347,7 @@
         <v>76</v>
       </c>
       <c r="AA19">
-        <v>10</v>
+        <v>17.71296296296294</v>
       </c>
       <c r="AB19">
         <v>8000</v>
@@ -2436,7 +2436,7 @@
         <v>76</v>
       </c>
       <c r="AA20">
-        <v>10</v>
+        <v>17.71296296296294</v>
       </c>
       <c r="AB20">
         <v>8000</v>
@@ -2525,7 +2525,7 @@
         <v>76</v>
       </c>
       <c r="AA21">
-        <v>10</v>
+        <v>17.71296296296294</v>
       </c>
       <c r="AB21">
         <v>8000</v>
@@ -2617,7 +2617,7 @@
         <v>76</v>
       </c>
       <c r="AA22">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB22">
         <v>8000</v>
@@ -2712,7 +2712,7 @@
         <v>76</v>
       </c>
       <c r="AA23">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB23">
         <v>8000</v>
@@ -2801,7 +2801,7 @@
         <v>76</v>
       </c>
       <c r="AA24">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB24">
         <v>8000</v>
@@ -2890,7 +2890,7 @@
         <v>76</v>
       </c>
       <c r="AA25">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB25">
         <v>8000</v>
@@ -2979,7 +2979,7 @@
         <v>76</v>
       </c>
       <c r="AA26">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB26">
         <v>8000</v>
@@ -8946,7 +8946,7 @@
         <v>76</v>
       </c>
       <c r="AA92">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB92">
         <v>8000</v>
@@ -9035,7 +9035,7 @@
         <v>76</v>
       </c>
       <c r="AA93">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB93">
         <v>8000</v>
@@ -9124,7 +9124,7 @@
         <v>76</v>
       </c>
       <c r="AA94">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB94">
         <v>8000</v>
@@ -9213,7 +9213,7 @@
         <v>76</v>
       </c>
       <c r="AA95">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB95">
         <v>8000</v>
@@ -9305,7 +9305,7 @@
         <v>76</v>
       </c>
       <c r="AA96">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB96">
         <v>8000</v>
@@ -9400,7 +9400,7 @@
         <v>76</v>
       </c>
       <c r="AA97">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB97">
         <v>8000</v>
@@ -9489,7 +9489,7 @@
         <v>76</v>
       </c>
       <c r="AA98">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB98">
         <v>8000</v>
@@ -9578,7 +9578,7 @@
         <v>76</v>
       </c>
       <c r="AA99">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB99">
         <v>8000</v>
@@ -9670,7 +9670,7 @@
         <v>76</v>
       </c>
       <c r="AA100">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB100">
         <v>8000</v>
@@ -9765,7 +9765,7 @@
         <v>76</v>
       </c>
       <c r="AA101">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB101">
         <v>8000</v>
@@ -10756,7 +10756,7 @@
         <v>76</v>
       </c>
       <c r="AA112">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB112">
         <v>8000</v>
@@ -10845,7 +10845,7 @@
         <v>76</v>
       </c>
       <c r="AA113">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB113">
         <v>8000</v>
@@ -10934,7 +10934,7 @@
         <v>76</v>
       </c>
       <c r="AA114">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB114">
         <v>8000</v>
@@ -11023,7 +11023,7 @@
         <v>76</v>
       </c>
       <c r="AA115">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB115">
         <v>8000</v>
@@ -11115,7 +11115,7 @@
         <v>76</v>
       </c>
       <c r="AA116">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB116">
         <v>8000</v>
@@ -11210,7 +11210,7 @@
         <v>76</v>
       </c>
       <c r="AA117">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB117">
         <v>8000</v>
@@ -11299,7 +11299,7 @@
         <v>76</v>
       </c>
       <c r="AA118">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB118">
         <v>8000</v>
@@ -11388,7 +11388,7 @@
         <v>76</v>
       </c>
       <c r="AA119">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB119">
         <v>8000</v>
@@ -11480,7 +11480,7 @@
         <v>76</v>
       </c>
       <c r="AA120">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB120">
         <v>8000</v>
@@ -11578,7 +11578,7 @@
         <v>76</v>
       </c>
       <c r="AA121">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB121">
         <v>8000</v>
@@ -11673,7 +11673,7 @@
         <v>76</v>
       </c>
       <c r="AA122">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB122">
         <v>8000</v>
@@ -11762,7 +11762,7 @@
         <v>76</v>
       </c>
       <c r="AA123">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB123">
         <v>8000</v>
@@ -11851,7 +11851,7 @@
         <v>76</v>
       </c>
       <c r="AA124">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB124">
         <v>8000</v>
@@ -11940,7 +11940,7 @@
         <v>76</v>
       </c>
       <c r="AA125">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB125">
         <v>8000</v>
@@ -12029,7 +12029,7 @@
         <v>76</v>
       </c>
       <c r="AA126">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB126">
         <v>8000</v>
@@ -14376,7 +14376,7 @@
         <v>76</v>
       </c>
       <c r="AA152">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB152">
         <v>8000</v>
@@ -14465,7 +14465,7 @@
         <v>76</v>
       </c>
       <c r="AA153">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB153">
         <v>8000</v>
@@ -14554,7 +14554,7 @@
         <v>76</v>
       </c>
       <c r="AA154">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB154">
         <v>8000</v>
@@ -14643,7 +14643,7 @@
         <v>76</v>
       </c>
       <c r="AA155">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB155">
         <v>8000</v>
@@ -14735,7 +14735,7 @@
         <v>76</v>
       </c>
       <c r="AA156">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB156">
         <v>8000</v>
@@ -14824,7 +14824,7 @@
         <v>76</v>
       </c>
       <c r="AA157">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB157">
         <v>8000</v>
@@ -14913,7 +14913,7 @@
         <v>76</v>
       </c>
       <c r="AA158">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB158">
         <v>8000</v>
@@ -15002,7 +15002,7 @@
         <v>76</v>
       </c>
       <c r="AA159">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB159">
         <v>8000</v>
@@ -15091,7 +15091,7 @@
         <v>76</v>
       </c>
       <c r="AA160">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB160">
         <v>8000</v>
@@ -15183,7 +15183,7 @@
         <v>76</v>
       </c>
       <c r="AA161">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB161">
         <v>8000</v>
